--- a/astroquery/mpc/example_plots/CometEls.xlsx
+++ b/astroquery/mpc/example_plots/CometEls.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21820" windowHeight="16940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5379,9 +5379,6 @@
     <t>0288P</t>
   </si>
   <si>
-    <t>288P</t>
-  </si>
-  <si>
     <t>0289P</t>
   </si>
   <si>
@@ -5631,46 +5628,49 @@
     <t>105, 420</t>
   </si>
   <si>
-    <t>Number, Orbit, Designation</t>
-  </si>
-  <si>
-    <t>Year of Perihelion passage</t>
-  </si>
-  <si>
-    <t>month of perihelion passage</t>
-  </si>
-  <si>
-    <t>day of perihelion passage</t>
-  </si>
-  <si>
-    <t>Argument of perihelion, J2000.0 (degrees)</t>
-  </si>
-  <si>
-    <t>Longitude of the ascending node, J2000.0 (degrees)</t>
-  </si>
-  <si>
-    <t>Inclination in degrees, J2000.0 (degrees)</t>
-  </si>
-  <si>
-    <t>epoch for perturbed solutions</t>
-  </si>
-  <si>
-    <t>Absolute magnitude</t>
-  </si>
-  <si>
-    <t>Slope parameter</t>
-  </si>
-  <si>
-    <t>Designation and Name</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>eccentricity</t>
   </si>
   <si>
     <t>perihelion</t>
+  </si>
+  <si>
+    <t>inclination</t>
+  </si>
+  <si>
+    <t>288P 2006 VW139</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>perihelion_year</t>
+  </si>
+  <si>
+    <t>perihelion_month</t>
+  </si>
+  <si>
+    <t>perihelion_day</t>
+  </si>
+  <si>
+    <t>perihelion_arg</t>
+  </si>
+  <si>
+    <t>long_ascending_node</t>
+  </si>
+  <si>
+    <t>perturbed_sols_epoch</t>
+  </si>
+  <si>
+    <t>absl_mag</t>
+  </si>
+  <si>
+    <t>slope_parameter</t>
+  </si>
+  <si>
+    <t>designation_name</t>
+  </si>
+  <si>
+    <t>reference</t>
   </si>
 </sst>
 </file>
@@ -5683,7 +5683,7 @@
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5725,6 +5725,33 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5743,7 +5770,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="439">
+  <cellStyleXfs count="481">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6183,8 +6210,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6224,8 +6293,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="439">
+  <cellStyles count="481">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -6445,6 +6541,27 @@
     <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6664,6 +6781,27 @@
     <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6995,8 +7133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W775"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7024,46 +7162,46 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="10" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>1870</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="F1" s="9" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1877</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1878</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>1871</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>1872</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>1873</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="J1" s="11" t="s">
+        <v>1879</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>1880</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>1881</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>1882</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>1883</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>1874</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>1875</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>1876</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>1877</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>1878</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>1879</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>1880</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>1881</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -7209,7 +7347,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -7311,7 +7449,7 @@
         <v>12</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="7"/>
@@ -7413,7 +7551,7 @@
         <v>17</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -7464,7 +7602,7 @@
         <v>19</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="7"/>
@@ -7515,7 +7653,7 @@
         <v>21</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -7668,7 +7806,7 @@
         <v>28</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="7"/>
@@ -8178,7 +8316,7 @@
         <v>53</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -8892,7 +9030,7 @@
         <v>88</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
@@ -8994,7 +9132,7 @@
         <v>93</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="7"/>
@@ -16397,56 +16535,58 @@
       <c r="V184" s="7"/>
       <c r="W184" s="7"/>
     </row>
-    <row r="185" spans="1:23">
-      <c r="A185" s="14" t="s">
+    <row r="185" spans="1:23" s="27" customFormat="1">
+      <c r="A185" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="B185" s="15">
+      <c r="B185" s="22">
         <v>2013</v>
       </c>
-      <c r="C185" s="15">
+      <c r="C185" s="22">
         <v>5</v>
       </c>
-      <c r="D185" s="16">
+      <c r="D185" s="23">
         <v>22.200199999999999</v>
       </c>
-      <c r="E185" s="17">
+      <c r="E185" s="24">
         <v>2.0044249999999999</v>
       </c>
-      <c r="F185" s="17">
+      <c r="F185" s="24">
         <v>0.124762</v>
       </c>
-      <c r="G185" s="16">
+      <c r="G185" s="23">
         <v>132.84200000000001</v>
       </c>
-      <c r="H185" s="16">
+      <c r="H185" s="23">
         <v>320.2278</v>
       </c>
-      <c r="I185" s="16">
+      <c r="I185" s="23">
         <v>5.2567000000000004</v>
       </c>
-      <c r="J185" s="15">
-        <v>20150104</v>
-      </c>
-      <c r="K185" s="18">
+      <c r="J185" s="22">
+        <v>20150104</v>
+      </c>
+      <c r="K185" s="25">
         <v>15.5</v>
       </c>
-      <c r="L185" s="15">
-        <v>4</v>
-      </c>
-      <c r="M185" s="20" t="s">
+      <c r="L185" s="22">
+        <v>4</v>
+      </c>
+      <c r="M185" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="N185" s="20" t="s">
+      <c r="N185" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="Q185" s="7"/>
-      <c r="R185" s="7"/>
-      <c r="S185" s="6"/>
-      <c r="T185" s="6"/>
-      <c r="U185" s="7"/>
-      <c r="V185" s="7"/>
-      <c r="W185" s="7"/>
+      <c r="O185" s="26"/>
+      <c r="P185" s="26"/>
+      <c r="Q185" s="30"/>
+      <c r="R185" s="30"/>
+      <c r="S185" s="31"/>
+      <c r="T185" s="31"/>
+      <c r="U185" s="30"/>
+      <c r="V185" s="30"/>
+      <c r="W185" s="30"/>
     </row>
     <row r="186" spans="1:23">
       <c r="A186" s="14" t="s">
@@ -18582,56 +18722,58 @@
       <c r="V227" s="7"/>
       <c r="W227" s="7"/>
     </row>
-    <row r="228" spans="1:23">
-      <c r="A228" s="14" t="s">
+    <row r="228" spans="1:23" s="27" customFormat="1">
+      <c r="A228" s="29" t="s">
         <v>567</v>
       </c>
-      <c r="B228" s="15">
+      <c r="B228" s="22">
         <v>2015</v>
       </c>
-      <c r="C228" s="15">
+      <c r="C228" s="22">
         <v>11</v>
       </c>
-      <c r="D228" s="16">
+      <c r="D228" s="23">
         <v>30.246099999999998</v>
       </c>
-      <c r="E228" s="17">
+      <c r="E228" s="24">
         <v>2.6195599999999999</v>
       </c>
-      <c r="F228" s="17">
+      <c r="F228" s="24">
         <v>0.153698</v>
       </c>
-      <c r="G228" s="16">
+      <c r="G228" s="23">
         <v>58.636099999999999</v>
       </c>
-      <c r="H228" s="16">
+      <c r="H228" s="23">
         <v>270.65300000000002</v>
       </c>
-      <c r="I228" s="16">
+      <c r="I228" s="23">
         <v>21.4193</v>
       </c>
-      <c r="J228" s="15">
-        <v>20150104</v>
-      </c>
-      <c r="K228" s="18">
+      <c r="J228" s="22">
+        <v>20150104</v>
+      </c>
+      <c r="K228" s="25">
         <v>13</v>
       </c>
-      <c r="L228" s="15">
-        <v>4</v>
-      </c>
-      <c r="M228" s="20" t="s">
+      <c r="L228" s="22">
+        <v>4</v>
+      </c>
+      <c r="M228" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="N228" s="20" t="s">
+      <c r="N228" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="Q228" s="7"/>
-      <c r="R228" s="7"/>
-      <c r="S228" s="7"/>
-      <c r="T228" s="6"/>
-      <c r="U228" s="6"/>
-      <c r="V228" s="7"/>
-      <c r="W228" s="7"/>
+      <c r="O228" s="26"/>
+      <c r="P228" s="26"/>
+      <c r="Q228" s="30"/>
+      <c r="R228" s="30"/>
+      <c r="S228" s="30"/>
+      <c r="T228" s="31"/>
+      <c r="U228" s="31"/>
+      <c r="V228" s="30"/>
+      <c r="W228" s="30"/>
     </row>
     <row r="229" spans="1:23">
       <c r="A229" s="14" t="s">
@@ -22403,56 +22545,58 @@
       <c r="V302" s="7"/>
       <c r="W302" s="7"/>
     </row>
-    <row r="303" spans="1:23">
-      <c r="A303" s="14" t="s">
+    <row r="303" spans="1:23" s="27" customFormat="1">
+      <c r="A303" s="29" t="s">
         <v>755</v>
       </c>
-      <c r="B303" s="15">
+      <c r="B303" s="22">
         <v>2015</v>
       </c>
-      <c r="C303" s="15">
+      <c r="C303" s="22">
         <v>6</v>
       </c>
-      <c r="D303" s="16">
+      <c r="D303" s="23">
         <v>16.266300000000001</v>
       </c>
-      <c r="E303" s="17">
+      <c r="E303" s="24">
         <v>2.880277</v>
       </c>
-      <c r="F303" s="17">
+      <c r="F303" s="24">
         <v>4.1326000000000002E-2</v>
       </c>
-      <c r="G303" s="16">
+      <c r="G303" s="23">
         <v>178.13560000000001</v>
       </c>
-      <c r="H303" s="16">
+      <c r="H303" s="23">
         <v>216.8383</v>
       </c>
-      <c r="I303" s="16">
+      <c r="I303" s="23">
         <v>9.7384000000000004</v>
       </c>
-      <c r="J303" s="15">
-        <v>20150104</v>
-      </c>
-      <c r="K303" s="18">
+      <c r="J303" s="22">
+        <v>20150104</v>
+      </c>
+      <c r="K303" s="25">
         <v>12</v>
       </c>
-      <c r="L303" s="15">
-        <v>4</v>
-      </c>
-      <c r="M303" s="20" t="s">
+      <c r="L303" s="22">
+        <v>4</v>
+      </c>
+      <c r="M303" s="21" t="s">
         <v>756</v>
       </c>
-      <c r="N303" s="20" t="s">
+      <c r="N303" s="21" t="s">
         <v>757</v>
       </c>
-      <c r="Q303" s="7"/>
-      <c r="R303" s="7"/>
-      <c r="S303" s="6"/>
-      <c r="T303" s="6"/>
-      <c r="U303" s="7"/>
-      <c r="V303" s="7"/>
-      <c r="W303" s="7"/>
+      <c r="O303" s="26"/>
+      <c r="P303" s="26"/>
+      <c r="Q303" s="30"/>
+      <c r="R303" s="30"/>
+      <c r="S303" s="31"/>
+      <c r="T303" s="31"/>
+      <c r="U303" s="30"/>
+      <c r="V303" s="30"/>
+      <c r="W303" s="30"/>
     </row>
     <row r="304" spans="1:23">
       <c r="A304" s="14" t="s">
@@ -23676,56 +23820,58 @@
       <c r="V327" s="7"/>
       <c r="W327" s="7"/>
     </row>
-    <row r="328" spans="1:23">
-      <c r="A328" s="14" t="s">
+    <row r="328" spans="1:23" s="27" customFormat="1">
+      <c r="A328" s="29" t="s">
         <v>818</v>
       </c>
-      <c r="B328" s="15">
+      <c r="B328" s="22">
         <v>2012</v>
       </c>
-      <c r="C328" s="15">
+      <c r="C328" s="22">
         <v>9</v>
       </c>
-      <c r="D328" s="16">
+      <c r="D328" s="23">
         <v>9.5627999999999993</v>
       </c>
-      <c r="E328" s="17">
+      <c r="E328" s="24">
         <v>2.4029590000000001</v>
       </c>
-      <c r="F328" s="17">
+      <c r="F328" s="24">
         <v>0.23704500000000001</v>
       </c>
-      <c r="G328" s="16">
+      <c r="G328" s="23">
         <v>300.06290000000001</v>
       </c>
-      <c r="H328" s="16">
+      <c r="H328" s="23">
         <v>85.737700000000004</v>
       </c>
-      <c r="I328" s="16">
+      <c r="I328" s="23">
         <v>11.0566</v>
       </c>
-      <c r="J328" s="15">
-        <v>20150104</v>
-      </c>
-      <c r="K328" s="18">
+      <c r="J328" s="22">
+        <v>20150104</v>
+      </c>
+      <c r="K328" s="25">
         <v>15</v>
       </c>
-      <c r="L328" s="15">
-        <v>4</v>
-      </c>
-      <c r="M328" s="20" t="s">
+      <c r="L328" s="22">
+        <v>4</v>
+      </c>
+      <c r="M328" s="21" t="s">
         <v>819</v>
       </c>
-      <c r="N328" s="20" t="s">
+      <c r="N328" s="21" t="s">
         <v>820</v>
       </c>
-      <c r="Q328" s="7"/>
-      <c r="R328" s="6"/>
-      <c r="S328" s="6"/>
-      <c r="T328" s="7"/>
-      <c r="U328" s="7"/>
-      <c r="V328" s="7"/>
-      <c r="W328" s="7"/>
+      <c r="O328" s="26"/>
+      <c r="P328" s="26"/>
+      <c r="Q328" s="30"/>
+      <c r="R328" s="31"/>
+      <c r="S328" s="31"/>
+      <c r="T328" s="30"/>
+      <c r="U328" s="30"/>
+      <c r="V328" s="30"/>
+      <c r="W328" s="30"/>
     </row>
     <row r="329" spans="1:23">
       <c r="A329" s="14" t="s">
@@ -26734,107 +26880,111 @@
       <c r="V387" s="6"/>
       <c r="W387" s="6"/>
     </row>
-    <row r="388" spans="1:23">
-      <c r="A388" s="14" t="s">
+    <row r="388" spans="1:23" s="27" customFormat="1">
+      <c r="A388" s="29" t="s">
         <v>965</v>
       </c>
-      <c r="B388" s="15">
+      <c r="B388" s="22">
         <v>2013</v>
       </c>
-      <c r="C388" s="15">
+      <c r="C388" s="22">
         <v>8</v>
       </c>
-      <c r="D388" s="16">
+      <c r="D388" s="23">
         <v>5.9936999999999996</v>
       </c>
-      <c r="E388" s="17">
+      <c r="E388" s="24">
         <v>2.2064349999999999</v>
       </c>
-      <c r="F388" s="17">
+      <c r="F388" s="24">
         <v>0.27338899999999999</v>
       </c>
-      <c r="G388" s="16">
+      <c r="G388" s="23">
         <v>8.5870999999999995</v>
       </c>
-      <c r="H388" s="16">
+      <c r="H388" s="23">
         <v>342.63940000000002</v>
       </c>
-      <c r="I388" s="16">
+      <c r="I388" s="23">
         <v>0.89790000000000003</v>
       </c>
-      <c r="J388" s="15">
-        <v>20150104</v>
-      </c>
-      <c r="K388" s="18">
+      <c r="J388" s="22">
+        <v>20150104</v>
+      </c>
+      <c r="K388" s="25">
         <v>9</v>
       </c>
-      <c r="L388" s="15">
-        <v>4</v>
-      </c>
-      <c r="M388" s="20" t="s">
+      <c r="L388" s="22">
+        <v>4</v>
+      </c>
+      <c r="M388" s="21" t="s">
         <v>966</v>
       </c>
-      <c r="N388" s="20" t="s">
+      <c r="N388" s="21" t="s">
         <v>967</v>
       </c>
-      <c r="Q388" s="7"/>
-      <c r="R388" s="7"/>
-      <c r="S388" s="7"/>
-      <c r="T388" s="7"/>
-      <c r="U388" s="7"/>
-      <c r="V388" s="6"/>
-      <c r="W388" s="7"/>
-    </row>
-    <row r="389" spans="1:23">
-      <c r="A389" s="14" t="s">
+      <c r="O388" s="26"/>
+      <c r="P388" s="26"/>
+      <c r="Q388" s="30"/>
+      <c r="R388" s="30"/>
+      <c r="S388" s="30"/>
+      <c r="T388" s="30"/>
+      <c r="U388" s="30"/>
+      <c r="V388" s="31"/>
+      <c r="W388" s="30"/>
+    </row>
+    <row r="389" spans="1:23" s="27" customFormat="1">
+      <c r="A389" s="29" t="s">
         <v>968</v>
       </c>
-      <c r="B389" s="15">
+      <c r="B389" s="22">
         <v>2013</v>
       </c>
-      <c r="C389" s="15">
+      <c r="C389" s="22">
         <v>8</v>
       </c>
-      <c r="D389" s="16">
+      <c r="D389" s="23">
         <v>5.9896000000000003</v>
       </c>
-      <c r="E389" s="17">
+      <c r="E389" s="24">
         <v>2.2064659999999998</v>
       </c>
-      <c r="F389" s="17">
+      <c r="F389" s="24">
         <v>0.27337499999999998</v>
       </c>
-      <c r="G389" s="16">
+      <c r="G389" s="23">
         <v>8.5280000000000005</v>
       </c>
-      <c r="H389" s="16">
+      <c r="H389" s="23">
         <v>342.69819999999999</v>
       </c>
-      <c r="I389" s="16">
+      <c r="I389" s="23">
         <v>0.89949999999999997</v>
       </c>
-      <c r="J389" s="15">
-        <v>20150104</v>
-      </c>
-      <c r="K389" s="18">
+      <c r="J389" s="22">
+        <v>20150104</v>
+      </c>
+      <c r="K389" s="25">
         <v>9</v>
       </c>
-      <c r="L389" s="15">
-        <v>4</v>
-      </c>
-      <c r="M389" s="20" t="s">
+      <c r="L389" s="22">
+        <v>4</v>
+      </c>
+      <c r="M389" s="21" t="s">
         <v>969</v>
       </c>
-      <c r="N389" s="20" t="s">
+      <c r="N389" s="21" t="s">
         <v>967</v>
       </c>
-      <c r="Q389" s="7"/>
-      <c r="R389" s="7"/>
-      <c r="S389" s="7"/>
-      <c r="T389" s="7"/>
-      <c r="U389" s="7"/>
-      <c r="V389" s="6"/>
-      <c r="W389" s="7"/>
+      <c r="O389" s="26"/>
+      <c r="P389" s="26"/>
+      <c r="Q389" s="30"/>
+      <c r="R389" s="30"/>
+      <c r="S389" s="30"/>
+      <c r="T389" s="30"/>
+      <c r="U389" s="30"/>
+      <c r="V389" s="31"/>
+      <c r="W389" s="30"/>
     </row>
     <row r="390" spans="1:23">
       <c r="A390" s="14" t="s">
@@ -31050,7 +31200,7 @@
         <v>1153</v>
       </c>
       <c r="N472" s="20" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="T472" s="1"/>
       <c r="U472" s="1"/>
@@ -31410,7 +31560,7 @@
         <v>1172</v>
       </c>
       <c r="N480" s="20" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="481" spans="1:21">
@@ -31454,7 +31604,7 @@
         <v>1174</v>
       </c>
       <c r="N481" s="20" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="T481" s="1"/>
     </row>
@@ -32079,7 +32229,7 @@
         <v>1209</v>
       </c>
       <c r="N495" s="20" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="T495" s="1"/>
     </row>
@@ -32259,7 +32409,7 @@
         <v>1218</v>
       </c>
       <c r="N499" s="20" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="500" spans="1:20">
@@ -32393,7 +32543,7 @@
         <v>1226</v>
       </c>
       <c r="N502" s="20" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="503" spans="1:20">
@@ -32794,7 +32944,7 @@
         <v>1248</v>
       </c>
       <c r="N511" s="20" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="512" spans="1:20">
@@ -33104,7 +33254,7 @@
         <v>1263</v>
       </c>
       <c r="N518" s="20" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="519" spans="1:21">
@@ -33861,7 +34011,7 @@
         <v>1305</v>
       </c>
       <c r="N535" s="20" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="T535" s="1"/>
     </row>
@@ -33950,7 +34100,7 @@
         <v>1309</v>
       </c>
       <c r="N537" s="20" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="538" spans="1:21">
@@ -34578,7 +34728,7 @@
         <v>1341</v>
       </c>
       <c r="N551" s="20" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="T551" s="1"/>
     </row>
@@ -34713,7 +34863,7 @@
         <v>1348</v>
       </c>
       <c r="N554" s="20" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="T554" s="1"/>
     </row>
@@ -34848,7 +34998,7 @@
         <v>1354</v>
       </c>
       <c r="N557" s="20" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="T557" s="1"/>
     </row>
@@ -35159,7 +35309,7 @@
         <v>1371</v>
       </c>
       <c r="N564" s="20" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="T564" s="1"/>
     </row>
@@ -35426,7 +35576,7 @@
         <v>1385</v>
       </c>
       <c r="N570" s="20" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="571" spans="1:20">
@@ -36450,49 +36600,51 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="594" spans="1:20">
-      <c r="A594" s="20" t="s">
+    <row r="594" spans="1:20" s="27" customFormat="1">
+      <c r="A594" s="21" t="s">
         <v>1440</v>
       </c>
-      <c r="B594" s="15">
+      <c r="B594" s="22">
         <v>2013</v>
       </c>
-      <c r="C594" s="15">
+      <c r="C594" s="22">
         <v>2</v>
       </c>
-      <c r="D594" s="16">
+      <c r="D594" s="23">
         <v>8.2707999999999995</v>
       </c>
-      <c r="E594" s="17">
+      <c r="E594" s="24">
         <v>2.6498539999999999</v>
       </c>
-      <c r="F594" s="17">
+      <c r="F594" s="24">
         <v>0.16112799999999999</v>
       </c>
-      <c r="G594" s="16">
+      <c r="G594" s="23">
         <v>132.01669999999999</v>
       </c>
-      <c r="H594" s="16">
+      <c r="H594" s="23">
         <v>160.1516</v>
       </c>
-      <c r="I594" s="16">
+      <c r="I594" s="23">
         <v>1.3871</v>
       </c>
-      <c r="J594" s="15">
-        <v>20150104</v>
-      </c>
-      <c r="K594" s="18">
+      <c r="J594" s="22">
+        <v>20150104</v>
+      </c>
+      <c r="K594" s="25">
         <v>15.4</v>
       </c>
-      <c r="L594" s="15">
+      <c r="L594" s="22">
         <v>2</v>
       </c>
-      <c r="M594" s="20" t="s">
+      <c r="M594" s="21" t="s">
         <v>1441</v>
       </c>
-      <c r="N594" s="20" t="s">
+      <c r="N594" s="21" t="s">
         <v>1431</v>
       </c>
+      <c r="O594" s="26"/>
+      <c r="P594" s="26"/>
     </row>
     <row r="595" spans="1:20">
       <c r="A595" s="20" t="s">
@@ -38359,50 +38511,52 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="637" spans="1:20">
-      <c r="A637" s="20" t="s">
+    <row r="637" spans="1:20" s="27" customFormat="1">
+      <c r="A637" s="21" t="s">
         <v>1534</v>
       </c>
-      <c r="B637" s="15">
+      <c r="B637" s="22">
         <v>2017</v>
       </c>
-      <c r="C637" s="15">
+      <c r="C637" s="22">
         <v>3</v>
       </c>
-      <c r="D637" s="16">
+      <c r="D637" s="23">
         <v>12.703099999999999</v>
       </c>
-      <c r="E637" s="17">
+      <c r="E637" s="24">
         <v>2.5777320000000001</v>
       </c>
-      <c r="F637" s="17">
+      <c r="F637" s="24">
         <v>0.19295399999999999</v>
       </c>
-      <c r="G637" s="16">
+      <c r="G637" s="23">
         <v>35.564500000000002</v>
       </c>
-      <c r="H637" s="16">
+      <c r="H637" s="23">
         <v>345.95159999999998</v>
       </c>
-      <c r="I637" s="16">
+      <c r="I637" s="23">
         <v>0.23480000000000001</v>
       </c>
-      <c r="J637" s="15">
-        <v>20150104</v>
-      </c>
-      <c r="K637" s="18">
+      <c r="J637" s="22">
+        <v>20150104</v>
+      </c>
+      <c r="K637" s="25">
         <v>15.1</v>
       </c>
-      <c r="L637" s="15">
+      <c r="L637" s="22">
         <v>2</v>
       </c>
-      <c r="M637" s="20" t="s">
+      <c r="M637" s="21" t="s">
         <v>1535</v>
       </c>
-      <c r="N637" s="20" t="s">
+      <c r="N637" s="21" t="s">
         <v>1346</v>
       </c>
-      <c r="T637" s="1"/>
+      <c r="O637" s="26"/>
+      <c r="P637" s="26"/>
+      <c r="T637" s="28"/>
     </row>
     <row r="638" spans="1:20">
       <c r="A638" s="20" t="s">
@@ -38713,7 +38867,7 @@
         <v>1550</v>
       </c>
       <c r="N644" s="20" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="645" spans="1:20">
@@ -38981,7 +39135,7 @@
         <v>1563</v>
       </c>
       <c r="N650" s="20" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="T650" s="1"/>
     </row>
@@ -41130,50 +41284,52 @@
       </c>
       <c r="T698" s="1"/>
     </row>
-    <row r="699" spans="1:20">
-      <c r="A699" s="20" t="s">
+    <row r="699" spans="1:20" s="27" customFormat="1">
+      <c r="A699" s="21" t="s">
         <v>1672</v>
       </c>
-      <c r="B699" s="15">
+      <c r="B699" s="22">
         <v>2016</v>
       </c>
-      <c r="C699" s="15">
+      <c r="C699" s="22">
         <v>10</v>
       </c>
-      <c r="D699" s="16">
+      <c r="D699" s="23">
         <v>22.897400000000001</v>
       </c>
-      <c r="E699" s="17">
+      <c r="E699" s="24">
         <v>2.3647239999999998</v>
       </c>
-      <c r="F699" s="17">
+      <c r="F699" s="24">
         <v>0.252585</v>
       </c>
-      <c r="G699" s="16">
+      <c r="G699" s="23">
         <v>325.05450000000002</v>
       </c>
-      <c r="H699" s="16">
+      <c r="H699" s="23">
         <v>51.6571</v>
       </c>
-      <c r="I699" s="16">
+      <c r="I699" s="23">
         <v>1.2648999999999999</v>
       </c>
-      <c r="J699" s="15">
-        <v>20150104</v>
-      </c>
-      <c r="K699" s="18">
+      <c r="J699" s="22">
+        <v>20150104</v>
+      </c>
+      <c r="K699" s="25">
         <v>14.5</v>
       </c>
-      <c r="L699" s="15">
-        <v>4</v>
-      </c>
-      <c r="M699" s="20" t="s">
+      <c r="L699" s="22">
+        <v>4</v>
+      </c>
+      <c r="M699" s="21" t="s">
         <v>1673</v>
       </c>
-      <c r="N699" s="20" t="s">
+      <c r="N699" s="21" t="s">
         <v>1674</v>
       </c>
-      <c r="T699" s="1"/>
+      <c r="O699" s="26"/>
+      <c r="P699" s="26"/>
+      <c r="T699" s="28"/>
     </row>
     <row r="700" spans="1:20">
       <c r="A700" s="20" t="s">
@@ -41934,7 +42090,7 @@
         <v>1711</v>
       </c>
       <c r="N716" s="20" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="T716" s="1"/>
     </row>
@@ -42071,50 +42227,52 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="720" spans="1:20">
-      <c r="A720" s="20" t="s">
+    <row r="720" spans="1:20" s="27" customFormat="1">
+      <c r="A720" s="21" t="s">
         <v>1720</v>
       </c>
-      <c r="B720" s="15">
+      <c r="B720" s="22">
         <v>2013</v>
       </c>
-      <c r="C720" s="15">
+      <c r="C720" s="22">
         <v>1</v>
       </c>
-      <c r="D720" s="16">
+      <c r="D720" s="23">
         <v>25.390499999999999</v>
       </c>
-      <c r="E720" s="17">
+      <c r="E720" s="24">
         <v>1.8028850000000001</v>
       </c>
-      <c r="F720" s="17">
+      <c r="F720" s="24">
         <v>0.33990300000000001</v>
       </c>
-      <c r="G720" s="16">
+      <c r="G720" s="23">
         <v>256.8562</v>
       </c>
-      <c r="H720" s="16">
+      <c r="H720" s="23">
         <v>51.874299999999998</v>
       </c>
-      <c r="I720" s="16">
+      <c r="I720" s="23">
         <v>15.874700000000001</v>
       </c>
-      <c r="J720" s="15">
-        <v>20150104</v>
-      </c>
-      <c r="K720" s="18">
+      <c r="J720" s="22">
+        <v>20150104</v>
+      </c>
+      <c r="K720" s="25">
         <v>15.5</v>
       </c>
-      <c r="L720" s="15">
-        <v>4</v>
-      </c>
-      <c r="M720" s="20" t="s">
+      <c r="L720" s="22">
+        <v>4</v>
+      </c>
+      <c r="M720" s="21" t="s">
         <v>1721</v>
       </c>
-      <c r="N720" s="20" t="s">
+      <c r="N720" s="21" t="s">
         <v>1719</v>
       </c>
-      <c r="T720" s="1"/>
+      <c r="O720" s="26"/>
+      <c r="P720" s="26"/>
+      <c r="T720" s="28"/>
     </row>
     <row r="721" spans="1:20">
       <c r="A721" s="20" t="s">
@@ -43363,54 +43521,56 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="749" spans="1:21">
-      <c r="A749" s="20" t="s">
+    <row r="749" spans="1:21" s="27" customFormat="1">
+      <c r="A749" s="21" t="s">
         <v>1785</v>
       </c>
-      <c r="B749" s="15">
+      <c r="B749" s="22">
         <v>2016</v>
       </c>
-      <c r="C749" s="15">
+      <c r="C749" s="22">
         <v>11</v>
       </c>
-      <c r="D749" s="16">
+      <c r="D749" s="23">
         <v>8.7171000000000003</v>
       </c>
-      <c r="E749" s="17">
+      <c r="E749" s="24">
         <v>2.4347810000000001</v>
       </c>
-      <c r="F749" s="17">
+      <c r="F749" s="24">
         <v>0.20109199999999999</v>
       </c>
-      <c r="G749" s="16">
+      <c r="G749" s="23">
         <v>281.2013</v>
       </c>
-      <c r="H749" s="16">
+      <c r="H749" s="23">
         <v>83.191900000000004</v>
       </c>
-      <c r="I749" s="16">
+      <c r="I749" s="23">
         <v>3.2406000000000001</v>
       </c>
-      <c r="J749" s="15">
-        <v>20150104</v>
-      </c>
-      <c r="K749" s="18">
+      <c r="J749" s="22">
+        <v>20150104</v>
+      </c>
+      <c r="K749" s="25">
         <v>16</v>
       </c>
-      <c r="L749" s="15">
+      <c r="L749" s="22">
         <v>2</v>
       </c>
-      <c r="M749" s="20" t="s">
-        <v>1786</v>
-      </c>
-      <c r="N749" s="20" t="s">
+      <c r="M749" s="21" t="s">
+        <v>1872</v>
+      </c>
+      <c r="N749" s="21" t="s">
         <v>967</v>
       </c>
-      <c r="U749" s="1"/>
+      <c r="O749" s="26"/>
+      <c r="P749" s="26"/>
+      <c r="U749" s="28"/>
     </row>
     <row r="750" spans="1:21">
       <c r="A750" s="20" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B750" s="15">
         <v>2014</v>
@@ -43446,7 +43606,7 @@
         <v>4</v>
       </c>
       <c r="M750" s="20" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="N750" s="20" t="s">
         <v>1615</v>
@@ -43454,7 +43614,7 @@
     </row>
     <row r="751" spans="1:21">
       <c r="A751" s="20" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B751" s="15">
         <v>2014</v>
@@ -43490,7 +43650,7 @@
         <v>4</v>
       </c>
       <c r="M751" s="20" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="N751" s="20" t="s">
         <v>1572</v>
@@ -43499,7 +43659,7 @@
     </row>
     <row r="752" spans="1:21">
       <c r="A752" s="20" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B752" s="15">
         <v>2013</v>
@@ -43535,7 +43695,7 @@
         <v>4</v>
       </c>
       <c r="M752" s="20" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="N752" s="20" t="s">
         <v>1572</v>
@@ -43544,7 +43704,7 @@
     </row>
     <row r="753" spans="1:21">
       <c r="A753" s="20" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B753" s="15">
         <v>2014</v>
@@ -43580,7 +43740,7 @@
         <v>4</v>
       </c>
       <c r="M753" s="20" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="N753" s="20" t="s">
         <v>619</v>
@@ -43590,7 +43750,7 @@
     </row>
     <row r="754" spans="1:21">
       <c r="A754" s="20" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B754" s="15">
         <v>2014</v>
@@ -43626,7 +43786,7 @@
         <v>4</v>
       </c>
       <c r="M754" s="20" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="N754" s="20" t="s">
         <v>619</v>
@@ -43634,7 +43794,7 @@
     </row>
     <row r="755" spans="1:21">
       <c r="A755" s="20" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B755" s="15">
         <v>2014</v>
@@ -43670,7 +43830,7 @@
         <v>4</v>
       </c>
       <c r="M755" s="20" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="N755" s="20" t="s">
         <v>1612</v>
@@ -43679,7 +43839,7 @@
     </row>
     <row r="756" spans="1:21">
       <c r="A756" s="20" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B756" s="15">
         <v>2014</v>
@@ -43715,16 +43875,16 @@
         <v>4</v>
       </c>
       <c r="M756" s="20" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N756" s="20" t="s">
         <v>1800</v>
-      </c>
-      <c r="N756" s="20" t="s">
-        <v>1801</v>
       </c>
       <c r="T756" s="1"/>
     </row>
     <row r="757" spans="1:21">
       <c r="A757" s="20" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B757" s="15">
         <v>2014</v>
@@ -43760,7 +43920,7 @@
         <v>4</v>
       </c>
       <c r="M757" s="20" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="N757" s="20" t="s">
         <v>619</v>
@@ -43769,7 +43929,7 @@
     </row>
     <row r="758" spans="1:21">
       <c r="A758" s="20" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B758" s="15">
         <v>2014</v>
@@ -43805,16 +43965,16 @@
         <v>4</v>
       </c>
       <c r="M758" s="20" t="s">
+        <v>1804</v>
+      </c>
+      <c r="N758" s="20" t="s">
         <v>1805</v>
-      </c>
-      <c r="N758" s="20" t="s">
-        <v>1806</v>
       </c>
       <c r="T758" s="1"/>
     </row>
     <row r="759" spans="1:21">
       <c r="A759" s="20" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B759" s="15">
         <v>2013</v>
@@ -43850,15 +44010,15 @@
         <v>4</v>
       </c>
       <c r="M759" s="20" t="s">
+        <v>1807</v>
+      </c>
+      <c r="N759" s="20" t="s">
         <v>1808</v>
-      </c>
-      <c r="N759" s="20" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="760" spans="1:21">
       <c r="A760" s="20" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B760" s="15">
         <v>2015</v>
@@ -43894,7 +44054,7 @@
         <v>4</v>
       </c>
       <c r="M760" s="20" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="N760" s="20" t="s">
         <v>619</v>
@@ -43902,7 +44062,7 @@
     </row>
     <row r="761" spans="1:21">
       <c r="A761" s="20" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B761" s="15">
         <v>2014</v>
@@ -43938,7 +44098,7 @@
         <v>4</v>
       </c>
       <c r="M761" s="20" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="N761" s="20" t="s">
         <v>1572</v>
@@ -43946,7 +44106,7 @@
     </row>
     <row r="762" spans="1:21">
       <c r="A762" s="20" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B762" s="15">
         <v>2014</v>
@@ -43982,15 +44142,15 @@
         <v>4</v>
       </c>
       <c r="M762" s="20" t="s">
+        <v>1814</v>
+      </c>
+      <c r="N762" s="20" t="s">
         <v>1815</v>
-      </c>
-      <c r="N762" s="20" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="763" spans="1:21">
       <c r="A763" s="20" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B763" s="15">
         <v>2016</v>
@@ -44026,15 +44186,15 @@
         <v>4</v>
       </c>
       <c r="M763" s="20" t="s">
+        <v>1817</v>
+      </c>
+      <c r="N763" s="20" t="s">
         <v>1818</v>
-      </c>
-      <c r="N763" s="20" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="764" spans="1:21">
       <c r="A764" s="20" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B764" s="15">
         <v>2014</v>
@@ -44070,7 +44230,7 @@
         <v>4</v>
       </c>
       <c r="M764" s="20" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="N764" s="20" t="s">
         <v>619</v>
@@ -44079,7 +44239,7 @@
     </row>
     <row r="765" spans="1:21">
       <c r="A765" s="20" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B765" s="15">
         <v>2014</v>
@@ -44115,7 +44275,7 @@
         <v>4</v>
       </c>
       <c r="M765" s="20" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="N765" s="20" t="s">
         <v>619</v>
@@ -44125,7 +44285,7 @@
     </row>
     <row r="766" spans="1:21">
       <c r="A766" s="20" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B766" s="15">
         <v>2014</v>
@@ -44161,16 +44321,16 @@
         <v>4</v>
       </c>
       <c r="M766" s="20" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="N766" s="20" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="T766" s="1"/>
     </row>
     <row r="767" spans="1:21">
       <c r="A767" s="20" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B767" s="15">
         <v>2014</v>
@@ -44206,7 +44366,7 @@
         <v>4</v>
       </c>
       <c r="M767" s="20" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="N767" s="20" t="s">
         <v>619</v>
@@ -44215,7 +44375,7 @@
     </row>
     <row r="768" spans="1:21">
       <c r="A768" s="20" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B768" s="15">
         <v>2014</v>
@@ -44251,16 +44411,16 @@
         <v>4</v>
       </c>
       <c r="M768" s="20" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="N768" s="20" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="T768" s="1"/>
     </row>
     <row r="769" spans="1:20">
       <c r="A769" s="20" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B769" s="15">
         <v>2015</v>
@@ -44296,7 +44456,7 @@
         <v>2</v>
       </c>
       <c r="M769" s="20" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="N769" s="20" t="s">
         <v>619</v>
@@ -44304,7 +44464,7 @@
     </row>
     <row r="770" spans="1:20">
       <c r="A770" s="20" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B770" s="15">
         <v>2015</v>
@@ -44340,7 +44500,7 @@
         <v>4</v>
       </c>
       <c r="M770" s="20" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="N770" s="20" t="s">
         <v>619</v>
@@ -44349,7 +44509,7 @@
     </row>
     <row r="771" spans="1:20">
       <c r="A771" s="20" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B771" s="15">
         <v>2015</v>
@@ -44385,60 +44545,62 @@
         <v>4</v>
       </c>
       <c r="M771" s="20" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="N771" s="20" t="s">
         <v>619</v>
       </c>
       <c r="T771" s="1"/>
     </row>
-    <row r="772" spans="1:20">
-      <c r="A772" s="20" t="s">
+    <row r="772" spans="1:20" s="27" customFormat="1">
+      <c r="A772" s="21" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B772" s="22">
+        <v>2014</v>
+      </c>
+      <c r="C772" s="22">
+        <v>4</v>
+      </c>
+      <c r="D772" s="23">
+        <v>15.8268</v>
+      </c>
+      <c r="E772" s="24">
+        <v>1.9357169999999999</v>
+      </c>
+      <c r="F772" s="24">
+        <v>0.115701</v>
+      </c>
+      <c r="G772" s="23">
+        <v>144.2319</v>
+      </c>
+      <c r="H772" s="23">
+        <v>279.28179999999998</v>
+      </c>
+      <c r="I772" s="23">
+        <v>4.9672000000000001</v>
+      </c>
+      <c r="J772" s="22">
+        <v>20150104</v>
+      </c>
+      <c r="K772" s="25">
+        <v>17</v>
+      </c>
+      <c r="L772" s="22">
+        <v>4</v>
+      </c>
+      <c r="M772" s="21" t="s">
         <v>1836</v>
       </c>
-      <c r="B772" s="15">
-        <v>2014</v>
-      </c>
-      <c r="C772" s="15">
-        <v>4</v>
-      </c>
-      <c r="D772" s="16">
-        <v>15.8268</v>
-      </c>
-      <c r="E772" s="17">
-        <v>1.9357169999999999</v>
-      </c>
-      <c r="F772" s="17">
-        <v>0.115701</v>
-      </c>
-      <c r="G772" s="16">
-        <v>144.2319</v>
-      </c>
-      <c r="H772" s="16">
-        <v>279.28179999999998</v>
-      </c>
-      <c r="I772" s="16">
-        <v>4.9672000000000001</v>
-      </c>
-      <c r="J772" s="15">
-        <v>20150104</v>
-      </c>
-      <c r="K772" s="18">
-        <v>17</v>
-      </c>
-      <c r="L772" s="15">
-        <v>4</v>
-      </c>
-      <c r="M772" s="20" t="s">
+      <c r="N772" s="21" t="s">
         <v>1837</v>
       </c>
-      <c r="N772" s="20" t="s">
-        <v>1838</v>
-      </c>
+      <c r="O772" s="26"/>
+      <c r="P772" s="26"/>
     </row>
     <row r="773" spans="1:20">
       <c r="A773" s="20" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B773" s="15">
         <v>2014</v>
@@ -44474,16 +44636,16 @@
         <v>4</v>
       </c>
       <c r="M773" s="20" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="N773" s="20" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="T773" s="1"/>
     </row>
     <row r="774" spans="1:20">
       <c r="A774" s="20" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B774" s="15">
         <v>2014</v>
@@ -44519,7 +44681,7 @@
         <v>4</v>
       </c>
       <c r="M774" s="20" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="N774" s="20" t="s">
         <v>619</v>
@@ -44528,7 +44690,7 @@
     </row>
     <row r="775" spans="1:20">
       <c r="A775" s="20" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B775" s="15">
         <v>2016</v>
@@ -44564,7 +44726,7 @@
         <v>4</v>
       </c>
       <c r="M775" s="20" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="N775" s="20" t="s">
         <v>619</v>
@@ -44572,6 +44734,7 @@
       <c r="T775" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
